--- a/web/public/templates/deal_record_import_template.xlsx
+++ b/web/public/templates/deal_record_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bugco/Desktop/Vue/reBestHouse/web/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7EEA4-34B5-F74C-85CB-21EBF4DEFA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB8853E-3819-9C4E-8D26-1F3F4640CFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="520" windowWidth="24460" windowHeight="15780" xr2:uid="{9EA13CB0-40C5-4349-8257-5A5580FBA9C9}"/>
+    <workbookView xWindow="6180" yWindow="520" windowWidth="33280" windowHeight="15780" xr2:uid="{9EA13CB0-40C5-4349-8257-5A5580FBA9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,224 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={710EAAD3-D3D7-524D-A3FA-895B282DB5E4}</author>
+    <author>tc={84D23B85-1812-5D4C-8327-D00C19010372}</author>
+    <author>tc={12263D57-AF0A-344A-90D7-BF12DCCA0E88}</author>
+    <author>tc={279612B1-87BC-3043-8C4C-FA618F14E088}</author>
+    <author>tc={A5D383E3-BAB8-D24E-A938-F954CAEE07E6}</author>
+    <author>tc={3E68E22B-450A-BC43-B693-610728549FD8}</author>
+    <author>tc={DC23F264-C44F-174B-B4D2-618F1A5DEBDE}</author>
+    <author>tc={13413BD4-2277-C046-8087-A5FF5F647FA5}</author>
+    <author>tc={8EEC910B-D88E-7A41-91AB-4B9849FCBB47}</author>
+    <author>tc={8E1EEDB9-9CAE-4649-8258-8716E211F8E5}</author>
+    <author>tc={1A703CE5-E2BB-F840-B016-8976ED517E30}</author>
+    <author>tc={4170CDA5-822E-A74B-BC76-783C70900055}</author>
+    <author>tc={6D1FCEBD-2FFD-4846-AFF5-711C45990026}</author>
+    <author>tc={BE4C46EB-E97B-8140-8250-6895D9A6B89C}</author>
+    <author>tc={3B38FC4D-8AE6-EB40-8B4D-78FEC99EF705}</author>
+    <author>tc={C0001DB7-A105-3946-93EA-2B1051D08E6A}</author>
+    <author>tc={562436CB-E2AC-0E48-8C75-43580371996B}</author>
+    <author>tc={38C7AFE9-4069-E949-8B7C-3C86BE0BA4E3}</author>
+    <author>tc={BCCCEC64-580B-6E47-8649-0294A3386367}</author>
+    <author>tc={BD6ABBFF-4D9E-E848-883D-54C4AD13FCA0}</author>
+    <author>tc={5CE8AAC3-EEF4-3145-88E6-AC620520C4B1}</author>
+    <author>tc={092F0583-EEA5-C54D-A144-AB39597ABED9}</author>
+    <author>tc={034D1785-6EFF-EF47-AB9D-B4AF13C7DF3D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{710EAAD3-D3D7-524D-A3FA-895B282DB5E4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    小区名称/必填</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{84D23B85-1812-5D4C-8327-D00C19010372}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    区域名称</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{12263D57-AF0A-344A-90D7-BF12DCCA0E88}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    商圈名称</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{279612B1-87BC-3043-8C4C-FA618F14E088}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    必填，例：2室1厅、3室2厅</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{A5D383E3-BAB8-D24E-A938-F954CAEE07E6}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    必填，数字(㎡)</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{3E68E22B-450A-BC43-B693-610728549FD8}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    选填</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{DC23F264-C44F-174B-B4D2-618F1A5DEBDE}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    数字</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{13413BD4-2277-C046-8087-A5FF5F647FA5}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    数字，与所在楼层配合使用</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{8EEC910B-D88E-7A41-91AB-4B9849FCBB47}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    朝南/朝北/朝东/朝西/南北</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{8E1EEDB9-9CAE-4649-8258-8716E211F8E5}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    总价单位万元，数字</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{1A703CE5-E2BB-F840-B016-8976ED517E30}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    成交价单位万元，必填，数字</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{4170CDA5-822E-A74B-BC76-783C70900055}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    单位元，总价自动计算</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{6D1FCEBD-2FFD-4846-AFF5-711C45990026}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    日期格式：YYYY/MM/DD</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{BE4C46EB-E97B-8140-8250-6895D9A6B89C}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    单位天数，挂牌到成交多少天</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{3B38FC4D-8AE6-EB40-8B4D-78FEC99EF705}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    抵押信息，文字描述</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="15" shapeId="0" xr:uid="{C0001DB7-A105-3946-93EA-2B1051D08E6A}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    选填</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="16" shapeId="0" xr:uid="{562436CB-E2AC-0E48-8C75-43580371996B}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    选填</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="17" shapeId="0" xr:uid="{38C7AFE9-4069-E949-8B7C-3C86BE0BA4E3}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    城市拼音，默认小写</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="18" shapeId="0" xr:uid="{BCCCEC64-580B-6E47-8649-0294A3386367}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    板楼/塔楼/板塔结合</t>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="19" shapeId="0" xr:uid="{BD6ABBFF-4D9E-E848-883D-54C4AD13FCA0}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    附近地铁信息，距xx站xx米</t>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="20" shapeId="0" xr:uid="{5CE8AAC3-EEF4-3145-88E6-AC620520C4B1}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    毛坯/精装/普通装修/豪华装修</t>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="21" shapeId="0" xr:uid="{092F0583-EEA5-C54D-A144-AB39597ABED9}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    成交公司</t>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="22" shapeId="0" xr:uid="{034D1785-6EFF-EF47-AB9D-B4AF13C7DF3D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    平台id，必填</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>浦东</t>
   </si>
@@ -47,93 +263,51 @@
     <t>万科花园</t>
   </si>
   <si>
-    <t>已有小区或创建新小区/必填</t>
-  </si>
-  <si>
     <t>所在区域</t>
   </si>
   <si>
-    <t>区域名称</t>
-  </si>
-  <si>
     <t>所在商圈</t>
   </si>
   <si>
     <t>张江</t>
   </si>
   <si>
-    <t>商圈名称</t>
-  </si>
-  <si>
     <t>2室1厅</t>
   </si>
   <si>
-    <t>必填，例：2室1厅、3室2厅</t>
-  </si>
-  <si>
     <t>建筑面积*</t>
   </si>
   <si>
-    <t>必填，数字(㎡)</t>
-  </si>
-  <si>
     <t>楼层信息</t>
   </si>
   <si>
     <t>低楼层/共33层</t>
   </si>
   <si>
-    <t>选填，优先使用此字段</t>
-  </si>
-  <si>
     <t>所在楼层</t>
   </si>
   <si>
-    <t>数字，与总楼层配合使用</t>
-  </si>
-  <si>
     <t>总楼层</t>
   </si>
   <si>
-    <t>数字，与所在楼层配合使用</t>
-  </si>
-  <si>
     <t>房屋朝向</t>
   </si>
   <si>
     <t>朝南</t>
   </si>
   <si>
-    <t>朝南/朝北/朝东/朝西/南北</t>
-  </si>
-  <si>
-    <t>必填，数字</t>
-  </si>
-  <si>
     <t>单价(元/平)</t>
   </si>
   <si>
-    <t>数字，可由总价自动计算</t>
-  </si>
-  <si>
-    <t>日期格式：YYYY-MM-DD</t>
-  </si>
-  <si>
     <t>无抵押</t>
   </si>
   <si>
-    <t>文字描述</t>
-  </si>
-  <si>
     <t>户型图链接</t>
   </si>
   <si>
     <t>http://example.com/1.jpg</t>
   </si>
   <si>
-    <t>完整URL地址</t>
-  </si>
-  <si>
     <t>房源链接</t>
   </si>
   <si>
@@ -146,30 +320,18 @@
     <t>shanghai</t>
   </si>
   <si>
-    <t>城市拼音，默认小写</t>
-  </si>
-  <si>
     <t>建筑年代</t>
   </si>
   <si>
     <t>建筑结构</t>
   </si>
   <si>
-    <t>钢混</t>
-  </si>
-  <si>
-    <t>钢混/砖混/其他</t>
-  </si>
-  <si>
     <t>数据来源</t>
   </si>
   <si>
     <t>import</t>
   </si>
   <si>
-    <t>导入来源说明</t>
-  </si>
-  <si>
     <t>平台房源ID</t>
   </si>
   <si>
@@ -198,14 +360,6 @@
   </si>
   <si>
     <t>中介公司</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毛坯</t>
@@ -216,11 +370,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贝壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字描述</t>
+    <t>板楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +393,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,11 +424,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -289,6 +449,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName=" " id="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" userId="S::user2913@edu365.site::1bf1f663-af04-4b1e-bc70-16d19acdc349" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,12 +772,86 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-02-17T02:38:11.89" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{710EAAD3-D3D7-524D-A3FA-895B282DB5E4}">
+    <text>小区名称/必填</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2025-02-17T02:38:34.75" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{84D23B85-1812-5D4C-8327-D00C19010372}">
+    <text>区域名称</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2025-02-17T02:38:41.37" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{12263D57-AF0A-344A-90D7-BF12DCCA0E88}">
+    <text>商圈名称</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-02-17T02:38:59.10" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{279612B1-87BC-3043-8C4C-FA618F14E088}">
+    <text>必填，例：2室1厅、3室2厅</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2025-02-17T02:39:05.39" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{A5D383E3-BAB8-D24E-A938-F954CAEE07E6}">
+    <text>必填，数字(㎡)</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2025-02-17T02:39:22.68" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{3E68E22B-450A-BC43-B693-610728549FD8}">
+    <text>选填</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2025-02-17T02:39:34.86" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{DC23F264-C44F-174B-B4D2-618F1A5DEBDE}">
+    <text>数字</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2025-02-17T02:39:44.34" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{13413BD4-2277-C046-8087-A5FF5F647FA5}">
+    <text>数字，与所在楼层配合使用</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2025-02-17T02:39:52.29" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{8EEC910B-D88E-7A41-91AB-4B9849FCBB47}">
+    <text>朝南/朝北/朝东/朝西/南北</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2025-02-17T02:39:58.78" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{8E1EEDB9-9CAE-4649-8258-8716E211F8E5}">
+    <text>总价单位万元，数字</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-02-17T02:40:52.76" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{1A703CE5-E2BB-F840-B016-8976ED517E30}">
+    <text>成交价单位万元，必填，数字</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2025-02-17T02:41:16.79" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{4170CDA5-822E-A74B-BC76-783C70900055}">
+    <text>单位元，总价自动计算</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2025-02-17T02:41:29.75" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{6D1FCEBD-2FFD-4846-AFF5-711C45990026}">
+    <text>日期格式：YYYY/MM/DD</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2025-02-17T02:41:57.26" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{BE4C46EB-E97B-8140-8250-6895D9A6B89C}">
+    <text>单位天数，挂牌到成交多少天</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2025-02-17T02:42:24.67" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{3B38FC4D-8AE6-EB40-8B4D-78FEC99EF705}">
+    <text>抵押信息，文字描述</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2025-02-17T02:42:37.71" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{C0001DB7-A105-3946-93EA-2B1051D08E6A}">
+    <text>选填</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2025-02-17T02:42:47.26" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{562436CB-E2AC-0E48-8C75-43580371996B}">
+    <text>选填</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2025-02-17T02:42:54.41" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{38C7AFE9-4069-E949-8B7C-3C86BE0BA4E3}">
+    <text>城市拼音，默认小写</text>
+  </threadedComment>
+  <threadedComment ref="T1" dT="2025-02-17T02:43:40.51" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{BCCCEC64-580B-6E47-8649-0294A3386367}">
+    <text>板楼/塔楼/板塔结合</text>
+  </threadedComment>
+  <threadedComment ref="U1" dT="2025-02-17T02:44:17.66" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{BD6ABBFF-4D9E-E848-883D-54C4AD13FCA0}">
+    <text>附近地铁信息，距xx站xx米</text>
+  </threadedComment>
+  <threadedComment ref="V1" dT="2025-02-17T02:44:36.23" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{5CE8AAC3-EEF4-3145-88E6-AC620520C4B1}">
+    <text>毛坯/精装/普通装修/豪华装修</text>
+  </threadedComment>
+  <threadedComment ref="W1" dT="2025-02-17T02:44:44.94" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{092F0583-EEA5-C54D-A144-AB39597ABED9}">
+    <text>成交公司</text>
+  </threadedComment>
+  <threadedComment ref="Y1" dT="2025-02-17T02:45:04.91" personId="{C0BF6250-13F8-FE4B-AD0B-B3322BE1700E}" id="{034D1785-6EFF-EF47-AB9D-B4AF13C7DF3D}">
+    <text>平台id，必填</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7872A2-D132-8A4C-9FBB-761A44041647}">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7872A2-D132-8A4C-9FBB-761A44041647}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -624,76 +864,76 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
       <c r="Y1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -704,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>89.5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -722,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>600</v>
@@ -736,122 +976,47 @@
       <c r="M2" s="1">
         <v>45292</v>
       </c>
-      <c r="N2" s="1">
-        <v>43997</v>
+      <c r="N2" s="2">
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S2">
         <v>2015</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Y2">
         <v>107110941413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3">
-        <v>1991</v>
-      </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>